--- a/cpu/designs/design_exp.xlsx
+++ b/cpu/designs/design_exp.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11109"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10203"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ryancrumpler/Dropbox/College/04_Senior/Fall/ELEC_5200/CPU_design/04/models_exp/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ryancrumpler/Dropbox/Personal_Projects/CPU_Design/cpu/designs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{859446C0-A3F8-2349-82A0-1CCB94EB90D9}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE6C3CC3-9A33-D74D-B1DA-2E6DB9B00DF6}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="19680" xr2:uid="{DBA0A6EE-5180-6D43-9E8A-37F41C630C87}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19680" xr2:uid="{DBA0A6EE-5180-6D43-9E8A-37F41C630C87}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="128">
   <si>
     <t>Opcode</t>
   </si>
@@ -243,9 +243,6 @@
     <t>$RX = *addr($RY)</t>
   </si>
   <si>
-    <t>1001 0000 XXXX YYYY</t>
-  </si>
-  <si>
     <t>Copy</t>
   </si>
   <si>
@@ -276,15 +273,6 @@
     <t>1101 0000 0000 XXXX</t>
   </si>
   <si>
-    <t>Jump to *addr($RX) if $CP &lt; 0</t>
-  </si>
-  <si>
-    <t>Jump to *addr($RX) if $CP == 0</t>
-  </si>
-  <si>
-    <t>BRCH</t>
-  </si>
-  <si>
     <t>1110 0000 0000 XXXX</t>
   </si>
   <si>
@@ -357,13 +345,70 @@
     <t>*addr($RY) = $RX</t>
   </si>
   <si>
-    <t>1011 0000 0000 XXXX</t>
-  </si>
-  <si>
     <t>1100 0000 0000 XXXX</t>
   </si>
   <si>
     <t>PUSH</t>
+  </si>
+  <si>
+    <t>JUMP</t>
+  </si>
+  <si>
+    <t>Uncoditional Jump</t>
+  </si>
+  <si>
+    <t>Jump to *addr($RX) if negative flag == 1</t>
+  </si>
+  <si>
+    <t>Jump to *addr($RX) if zero flag == 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1011 F000 XXXX CCCC </t>
+  </si>
+  <si>
+    <t>1001 1100 XXXX YYYY</t>
+  </si>
+  <si>
+    <t>1001 0100 XXXX YYYY</t>
+  </si>
+  <si>
+    <t>1001 1000 0000 XXXX</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1011 1000 XXXX CCCC </t>
+  </si>
+  <si>
+    <t>LSL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1011 1100 XXXX CCCC </t>
+  </si>
+  <si>
+    <t>LSA</t>
+  </si>
+  <si>
+    <t>Left Shift Logical</t>
+  </si>
+  <si>
+    <t>Left Shift Arithmetic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1011 0000 XXXX CCCC </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1011 0100 XXXX CCCC </t>
+  </si>
+  <si>
+    <t>RSL</t>
+  </si>
+  <si>
+    <t>RSA</t>
+  </si>
+  <si>
+    <t>Right Shift Arithmetic</t>
+  </si>
+  <si>
+    <t>Right Shift Logical</t>
   </si>
 </sst>
 </file>
@@ -746,16 +791,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78694545-A691-C54C-A5B9-13A07C75E39C}">
-  <dimension ref="A3:S19"/>
+  <dimension ref="A3:S25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="172" workbookViewId="0">
-      <selection activeCell="Q14" sqref="Q14"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="172" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="20.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="28.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.83203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="7.33203125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="4.6640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="6.83203125" bestFit="1" customWidth="1"/>
@@ -769,7 +814,7 @@
   <sheetData>
     <row r="3" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>0</v>
@@ -796,10 +841,10 @@
         <v>5</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="L3" s="3" t="s">
         <v>6</v>
@@ -811,10 +856,10 @@
         <v>8</v>
       </c>
       <c r="O3" s="3" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="P3" s="3" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="Q3" s="3" t="s">
         <v>9</v>
@@ -826,7 +871,7 @@
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="B4" t="s">
         <v>12</v>
@@ -883,7 +928,7 @@
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="B5" t="s">
         <v>64</v>
@@ -940,7 +985,7 @@
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="B6" t="s">
         <v>65</v>
@@ -997,7 +1042,7 @@
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="B7" t="s">
         <v>66</v>
@@ -1054,7 +1099,7 @@
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="B8" t="s">
         <v>67</v>
@@ -1111,7 +1156,7 @@
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="B9" t="s">
         <v>68</v>
@@ -1168,7 +1213,7 @@
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="B10" t="s">
         <v>69</v>
@@ -1225,7 +1270,7 @@
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="B11" t="s">
         <v>70</v>
@@ -1237,7 +1282,7 @@
         <v>61</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F11" s="4" t="s">
         <v>35</v>
@@ -1282,19 +1327,19 @@
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="B12" t="s">
+        <v>76</v>
+      </c>
+      <c r="C12" t="s">
         <v>77</v>
       </c>
-      <c r="C12" t="s">
+      <c r="D12" t="s">
         <v>78</v>
       </c>
-      <c r="D12" t="s">
+      <c r="E12" s="4" t="s">
         <v>79</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>80</v>
       </c>
       <c r="F12" s="4" t="s">
         <v>36</v>
@@ -1339,28 +1384,28 @@
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B13" t="s">
-        <v>72</v>
+        <v>113</v>
       </c>
       <c r="C13" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="D13" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>33</v>
+        <v>75</v>
       </c>
       <c r="F13" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="G13" s="4">
-        <v>0</v>
-      </c>
-      <c r="H13" s="4">
-        <v>0</v>
+      <c r="G13" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="I13" s="4" t="s">
         <v>16</v>
@@ -1371,47 +1416,47 @@
       <c r="K13" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="L13" s="4">
-        <v>0</v>
-      </c>
-      <c r="M13" s="4">
-        <v>1</v>
-      </c>
-      <c r="N13" s="4">
-        <v>0</v>
-      </c>
-      <c r="O13" s="4">
-        <v>0</v>
+      <c r="L13" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="M13" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="N13" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="O13" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="P13" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="Q13" s="4">
-        <v>1</v>
-      </c>
-      <c r="R13" s="4">
-        <v>0</v>
+      <c r="Q13" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="R13" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="S13" s="4"/>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B14" t="s">
-        <v>81</v>
+        <v>114</v>
       </c>
       <c r="C14" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="D14" t="s">
-        <v>109</v>
+        <v>71</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>74</v>
+        <v>33</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G14" s="4">
         <v>0</v>
@@ -1432,10 +1477,10 @@
         <v>0</v>
       </c>
       <c r="M14" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N14" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O14" s="4">
         <v>0</v>
@@ -1453,22 +1498,22 @@
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B15" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="C15" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="D15" t="s">
         <v>59</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="G15" s="4" t="s">
         <v>16</v>
@@ -1510,28 +1555,28 @@
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B16" t="s">
-        <v>111</v>
+        <v>80</v>
       </c>
       <c r="C16" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="D16" t="s">
-        <v>60</v>
+        <v>105</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="G16" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="H16" s="4" t="s">
-        <v>16</v>
+        <v>37</v>
+      </c>
+      <c r="G16" s="4">
+        <v>0</v>
+      </c>
+      <c r="H16" s="4">
+        <v>0</v>
       </c>
       <c r="I16" s="4" t="s">
         <v>16</v>
@@ -1542,199 +1587,459 @@
       <c r="K16" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="L16" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="M16" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="N16" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="O16" s="4" t="s">
-        <v>16</v>
+      <c r="L16" s="4">
+        <v>0</v>
+      </c>
+      <c r="M16" s="4">
+        <v>0</v>
+      </c>
+      <c r="N16" s="4">
+        <v>1</v>
+      </c>
+      <c r="O16" s="4">
+        <v>0</v>
       </c>
       <c r="P16" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="Q16" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="R16" s="4" t="s">
-        <v>16</v>
+      <c r="Q16" s="4">
+        <v>1</v>
+      </c>
+      <c r="R16" s="4">
+        <v>0</v>
       </c>
       <c r="S16" s="4"/>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="B17" t="s">
-        <v>82</v>
+        <v>118</v>
       </c>
       <c r="C17" t="s">
-        <v>39</v>
-      </c>
-      <c r="D17" t="s">
-        <v>83</v>
-      </c>
-      <c r="E17" s="4" t="s">
-        <v>40</v>
+        <v>117</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>120</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="G17" s="4">
-        <v>0</v>
-      </c>
-      <c r="H17" s="4">
-        <v>0</v>
-      </c>
-      <c r="I17" s="4">
-        <v>1</v>
+        <v>38</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H17" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I17" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="J17" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="K17" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="L17" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="M17" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="N17" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="K17" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="L17" s="4">
-        <v>1</v>
-      </c>
-      <c r="M17" s="4">
-        <v>0</v>
-      </c>
-      <c r="N17" s="4">
-        <v>0</v>
-      </c>
-      <c r="O17" s="4">
-        <v>0</v>
+      <c r="O17" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="P17" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="Q17" s="4">
-        <v>0</v>
-      </c>
-      <c r="R17" s="4">
-        <v>0</v>
+      <c r="Q17" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="R17" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="S17" s="4"/>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="B18" t="s">
-        <v>86</v>
+        <v>116</v>
       </c>
       <c r="C18" t="s">
-        <v>43</v>
-      </c>
-      <c r="D18" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="E18" s="4" t="s">
-        <v>44</v>
+        <v>119</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>121</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="G18" s="4">
-        <v>0</v>
-      </c>
-      <c r="H18" s="4">
-        <v>0</v>
-      </c>
-      <c r="I18" s="4">
-        <v>1</v>
-      </c>
-      <c r="J18" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="K18" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="L18" s="4">
-        <v>1</v>
-      </c>
-      <c r="M18" s="4">
-        <v>0</v>
-      </c>
-      <c r="N18" s="4">
-        <v>0</v>
-      </c>
-      <c r="O18" s="4">
-        <v>0</v>
-      </c>
-      <c r="P18" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q18" s="4">
-        <v>0</v>
-      </c>
-      <c r="R18" s="4">
-        <v>0</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="4"/>
+      <c r="J18" s="4"/>
+      <c r="K18" s="4"/>
+      <c r="L18" s="4"/>
+      <c r="M18" s="4"/>
+      <c r="N18" s="4"/>
+      <c r="O18" s="4"/>
+      <c r="P18" s="4"/>
+      <c r="Q18" s="4"/>
+      <c r="R18" s="4"/>
       <c r="S18" s="4"/>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
+        <v>96</v>
+      </c>
+      <c r="B19" t="s">
+        <v>123</v>
+      </c>
+      <c r="C19" t="s">
+        <v>124</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="4"/>
+      <c r="J19" s="4"/>
+      <c r="K19" s="4"/>
+      <c r="L19" s="4"/>
+      <c r="M19" s="4"/>
+      <c r="N19" s="4"/>
+      <c r="O19" s="4"/>
+      <c r="P19" s="4"/>
+      <c r="Q19" s="4"/>
+      <c r="R19" s="4"/>
+      <c r="S19" s="4"/>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>96</v>
+      </c>
+      <c r="B20" t="s">
+        <v>122</v>
+      </c>
+      <c r="C20" t="s">
+        <v>125</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="4"/>
+      <c r="J20" s="4"/>
+      <c r="K20" s="4"/>
+      <c r="L20" s="4"/>
+      <c r="M20" s="4"/>
+      <c r="N20" s="4"/>
+      <c r="O20" s="4"/>
+      <c r="P20" s="4"/>
+      <c r="Q20" s="4"/>
+      <c r="R20" s="4"/>
+      <c r="S20" s="4"/>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>97</v>
+      </c>
+      <c r="B21" t="s">
+        <v>112</v>
+      </c>
+      <c r="C21" t="s">
+        <v>107</v>
+      </c>
+      <c r="D21" t="s">
+        <v>59</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="G21" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H21" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I21" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J21" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="K21" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="L21" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="M21" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="N21" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="O21" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="P21" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q21" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="R21" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="S21" s="4"/>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>98</v>
+      </c>
+      <c r="B22" t="s">
         <v>106</v>
       </c>
-      <c r="B19" t="s">
-        <v>87</v>
-      </c>
-      <c r="C19" t="s">
-        <v>85</v>
-      </c>
-      <c r="D19" t="s">
+      <c r="C22" t="s">
+        <v>58</v>
+      </c>
+      <c r="D22" t="s">
+        <v>60</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="G22" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H22" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I22" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J22" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="K22" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="L22" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="M22" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="N22" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="O22" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="P22" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q22" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="R22" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="S22" s="4"/>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>99</v>
+      </c>
+      <c r="B23" t="s">
+        <v>81</v>
+      </c>
+      <c r="C23" t="s">
+        <v>39</v>
+      </c>
+      <c r="D23" t="s">
+        <v>110</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="G23" s="4">
+        <v>0</v>
+      </c>
+      <c r="H23" s="4">
+        <v>0</v>
+      </c>
+      <c r="I23" s="4">
+        <v>1</v>
+      </c>
+      <c r="J23" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="K23" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="L23" s="4">
+        <v>1</v>
+      </c>
+      <c r="M23" s="4">
+        <v>0</v>
+      </c>
+      <c r="N23" s="4">
+        <v>0</v>
+      </c>
+      <c r="O23" s="4">
+        <v>0</v>
+      </c>
+      <c r="P23" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q23" s="4">
+        <v>0</v>
+      </c>
+      <c r="R23" s="4">
+        <v>0</v>
+      </c>
+      <c r="S23" s="4"/>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>100</v>
+      </c>
+      <c r="B24" t="s">
+        <v>82</v>
+      </c>
+      <c r="C24" t="s">
+        <v>43</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="G24" s="4">
+        <v>0</v>
+      </c>
+      <c r="H24" s="4">
+        <v>0</v>
+      </c>
+      <c r="I24" s="4">
+        <v>1</v>
+      </c>
+      <c r="J24" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="K24" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="L24" s="4">
+        <v>1</v>
+      </c>
+      <c r="M24" s="4">
+        <v>0</v>
+      </c>
+      <c r="N24" s="4">
+        <v>0</v>
+      </c>
+      <c r="O24" s="4">
+        <v>0</v>
+      </c>
+      <c r="P24" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q24" s="4">
+        <v>0</v>
+      </c>
+      <c r="R24" s="4">
+        <v>0</v>
+      </c>
+      <c r="S24" s="4"/>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>102</v>
+      </c>
+      <c r="B25" t="s">
+        <v>83</v>
+      </c>
+      <c r="C25" t="s">
+        <v>108</v>
+      </c>
+      <c r="D25" t="s">
+        <v>109</v>
+      </c>
+      <c r="E25" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E19" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="F19" s="4" t="s">
+      <c r="F25" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="G19" s="4">
-        <v>0</v>
-      </c>
-      <c r="H19" s="4">
+      <c r="G25" s="4">
+        <v>0</v>
+      </c>
+      <c r="H25" s="4">
         <v>1</v>
       </c>
-      <c r="I19" s="4">
-        <v>0</v>
-      </c>
-      <c r="J19" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="K19" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="L19" s="4">
-        <v>0</v>
-      </c>
-      <c r="M19" s="4">
-        <v>0</v>
-      </c>
-      <c r="N19" s="4">
-        <v>0</v>
-      </c>
-      <c r="O19" s="4">
-        <v>0</v>
-      </c>
-      <c r="P19" s="4" t="s">
+      <c r="I25" s="4">
+        <v>0</v>
+      </c>
+      <c r="J25" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="K25" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="L25" s="4">
+        <v>0</v>
+      </c>
+      <c r="M25" s="4">
+        <v>0</v>
+      </c>
+      <c r="N25" s="4">
+        <v>0</v>
+      </c>
+      <c r="O25" s="4">
+        <v>0</v>
+      </c>
+      <c r="P25" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="Q19" s="4">
-        <v>0</v>
-      </c>
-      <c r="R19" s="4">
-        <v>0</v>
-      </c>
-      <c r="S19" s="4"/>
+      <c r="Q25" s="4">
+        <v>0</v>
+      </c>
+      <c r="R25" s="4">
+        <v>0</v>
+      </c>
+      <c r="S25" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
